--- a/animations/fragment-accelerate-and-fade-out-3.xlsx
+++ b/animations/fragment-accelerate-and-fade-out-3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC777752-0A4B-2044-9DEB-4984A3CB0AC8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFD223-C4E5-F742-9A32-89EEB4FB90D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="50360" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>1+AL1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AM24" sqref="AM24"/>
+    <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,8 +478,8 @@
       <c r="AJ1">
         <v>6</v>
       </c>
-      <c r="AK1">
-        <v>7</v>
+      <c r="AK1" t="s">
+        <v>0</v>
       </c>
       <c r="AL1">
         <v>8</v>
